--- a/src/inserted/cliente_insert.xlsx
+++ b/src/inserted/cliente_insert.xlsx
@@ -570,7 +570,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>117603</t>
+          <t>117608</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117603', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919591'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117608', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919596'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>117604</t>
+          <t>117609</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117604', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919592'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117609', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919597'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>117605</t>
+          <t>117610</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117605', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919593'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117610', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919598'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>117606</t>
+          <t>117611</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117606', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919594'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117611', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919599'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>117607</t>
+          <t>117612</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117607', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919595'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117612', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919600'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>

--- a/src/inserted/cliente_insert.xlsx
+++ b/src/inserted/cliente_insert.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -524,8 +524,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>99999999999</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -537,11 +539,15 @@
           <t>Isento</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>35</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1659</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -570,7 +576,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>117608</t>
+          <t>117636</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -580,7 +586,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117608', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919596'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117636', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919624'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -598,8 +604,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>99999999999</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -611,11 +619,15 @@
           <t>30234875</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>35</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1659</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -644,7 +656,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>117609</t>
+          <t>117637</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -654,7 +666,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117609', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919597'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117637', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919625'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -672,8 +684,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>99999999999</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -685,11 +699,15 @@
           <t>40259595</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>35</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1659</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -718,7 +736,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>117610</t>
+          <t>117638</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -728,7 +746,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117610', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919598'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117638', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919626'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -746,8 +764,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>99999999999</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -759,11 +779,15 @@
           <t>3614522-0</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>35</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1659</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -792,7 +816,7 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>117611</t>
+          <t>117639</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -802,7 +826,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117611', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919599'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117639', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919627'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -820,8 +844,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>99999999999</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -833,11 +859,15 @@
           <t>36145220</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>35</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1659</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -860,15 +890,19 @@
           <t>57830-000</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>117640</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>falha</t>
+          <t>sucesso</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>{'type': 'error', 'message': 'CPF/CNPJ obrigatório!&lt;br /&gt;Preencha Ativo&lt;br /&gt;Preencha Razão social/Nome&lt;br /&gt;Preencha Endereço&lt;br /&gt;Preencha Cidade&lt;br /&gt;Preencha Bairro&lt;br /&gt;Preencha Número&lt;br /&gt;Preencha CEP&lt;br /&gt;Preencha Tipo pessoa&lt;br /&gt;Preencha Tipo de assinante&lt;br /&gt;Preencha Classificação de ISS&lt;br /&gt;Preencha Contribuinte ICMS&lt;br /&gt;Preencha Tipo de localidade', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': ''}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': ''}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '27'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117640', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919628'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -886,8 +920,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>99999999999</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -899,11 +935,15 @@
           <t>ISENTO</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>35</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1659</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -932,7 +972,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>117612</t>
+          <t>117641</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -942,7 +982,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117612', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '24/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919600'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117641', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919629'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -960,8 +1000,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>99999999999</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -973,11 +1015,15 @@
           <t>30972841</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>35</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1659</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -1000,15 +1046,19 @@
           <t>57830-000</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>117642</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>falha</t>
+          <t>sucesso</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>{'type': 'error', 'message': 'CPF/CNPJ obrigatório!&lt;br /&gt;Preencha Ativo&lt;br /&gt;Preencha Razão social/Nome&lt;br /&gt;Preencha Endereço&lt;br /&gt;Preencha Cidade&lt;br /&gt;Preencha Bairro&lt;br /&gt;Preencha Número&lt;br /&gt;Preencha CEP&lt;br /&gt;Preencha Tipo pessoa&lt;br /&gt;Preencha Tipo de assinante&lt;br /&gt;Preencha Classificação de ISS&lt;br /&gt;Preencha Contribuinte ICMS&lt;br /&gt;Preencha Tipo de localidade', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': ''}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': ''}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '27'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117642', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919630'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
@@ -1026,8 +1076,10 @@
           <t>teste@gmail.com</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>99999999999</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>99999999999</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1039,11 +1091,15 @@
           <t>ISENTO</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>35</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1659</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1659</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -1066,15 +1122,19 @@
           <t>57830-000</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>117643</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>falha</t>
+          <t>sucesso</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>{'type': 'error', 'message': 'CPF/CNPJ obrigatório!&lt;br /&gt;Preencha Ativo&lt;br /&gt;Preencha Razão social/Nome&lt;br /&gt;Preencha Endereço&lt;br /&gt;Preencha Cidade&lt;br /&gt;Preencha Bairro&lt;br /&gt;Preencha Número&lt;br /&gt;Preencha CEP&lt;br /&gt;Preencha Tipo pessoa&lt;br /&gt;Preencha Tipo de assinante&lt;br /&gt;Preencha Classificação de ISS&lt;br /&gt;Preencha Contribuinte ICMS&lt;br /&gt;Preencha Tipo de localidade', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': ''}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': ''}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '27'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
+          <t>{'type': 'success', 'message': 'Registro inserido com sucesso!', 'id': '117643', 'atualiza_campos': [{'tipo': 'r', 'campo': 'ativo', 'valor': 'S'}, {'tipo': 'i', 'campo': 'data_cadastro', 'valor': '26/12/2024'}, {'tipo': 'i', 'campo': 'filial_id', 'valor': '35'}, {'tipo': 'i', 'campo': 'latitude', 'valor': ''}, {'tipo': 'i', 'campo': 'longitude', 'valor': ''}, {'tipo': 'i', 'campo': 'id_conta', 'valor': '919631'}, {'tipo': 'd', 'campo': 'crm_data_vencemos', 'valor': ''}, {'tipo': 'r', 'campo': 'convert_cliente_forn', 'valor': ''}, {'tipo': 'd', 'campo': 'crm_data_perdemos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_viabilidade', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sem_porta_disponivel', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_abortamos', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_negociando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_apresentando', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_sondagem', 'valor': ''}, {'tipo': 'i', 'campo': 'crm_data_novo', 'valor': ''}]}</t>
         </is>
       </c>
     </row>
